--- a/mapping_schemes/west/SEN_RES.xlsx
+++ b/mapping_schemes/west/SEN_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/West/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D2D82F-0518-9945-9500-1F1E836A06C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF75CF6-797B-E842-8653-0EC46C517CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="13540" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="93">
   <si>
     <t>MATO</t>
   </si>
@@ -3849,10 +3849,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4284,26 +4284,26 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>78</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>78</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>78</v>
@@ -4345,128 +4345,146 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f>A34</f>
-        <v>Wood</v>
+      <c r="A35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
+      <c r="A36" s="1" t="str">
+        <f>A35</f>
+        <v>Wood</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="str">
-        <f>A36</f>
-        <v>Block</v>
+      <c r="A37" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
+      <c r="A38" s="1" t="str">
+        <f>A37</f>
+        <v>Block</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="str">
-        <f>A38</f>
-        <v>Block and cement plaster</v>
+      <c r="A39" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
+      <c r="A40" s="1" t="str">
+        <f>A39</f>
+        <v>Block and cement plaster</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
@@ -4552,13 +4570,12 @@
       <c r="A60" s="10"/>
       <c r="B60" s="5"/>
       <c r="C60" s="3"/>
-      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
@@ -4600,6 +4617,7 @@
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="3"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
@@ -4647,9 +4665,9 @@
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
@@ -4664,7 +4682,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
@@ -4679,11 +4697,11 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
@@ -4739,6 +4757,11 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4750,7 +4773,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
